--- a/VennOutput/Trimmed_PFIZER_Combined_Output_Mono-vs-Bivalent.xlsx
+++ b/VennOutput/Trimmed_PFIZER_Combined_Output_Mono-vs-Bivalent.xlsx
@@ -1104,7 +1104,9 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1141,7 +1143,9 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1178,7 +1182,9 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1215,7 +1221,9 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1252,7 +1260,9 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1289,7 +1299,9 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1326,7 +1338,9 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1363,7 +1377,9 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1400,7 +1416,9 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1437,7 +1455,9 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1474,7 +1494,9 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1511,7 +1533,9 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1548,7 +1572,9 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1585,7 +1611,9 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1622,7 +1650,9 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1659,7 +1689,9 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1696,7 +1728,9 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1733,7 +1767,9 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1770,7 +1806,9 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1807,7 +1845,9 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1844,7 +1884,9 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1881,7 +1923,9 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1918,7 +1962,9 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1955,7 +2001,9 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1992,7 +2040,9 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2029,7 +2079,9 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2066,7 +2118,9 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2103,7 +2157,9 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2140,7 +2196,9 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2177,7 +2235,9 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2214,7 +2274,9 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2251,7 +2313,9 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2288,7 +2352,9 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2325,7 +2391,9 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2362,7 +2430,9 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2399,7 +2469,9 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2436,7 +2508,9 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2473,7 +2547,9 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2510,7 +2586,9 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2547,7 +2625,9 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2584,7 +2664,9 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PFIZER_BIVALENT</t>
+          <t xml:space="preserve">
+Pfizer
+Bi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2621,7 +2703,9 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2658,7 +2742,9 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2695,7 +2781,9 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2732,7 +2820,9 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2769,7 +2859,9 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2806,7 +2898,9 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2843,7 +2937,9 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2880,7 +2976,9 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2917,7 +3015,9 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2954,7 +3054,9 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2991,7 +3093,9 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3028,7 +3132,9 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3065,7 +3171,9 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3102,7 +3210,9 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3139,7 +3249,9 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3176,7 +3288,9 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3213,7 +3327,9 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3250,7 +3366,9 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3287,7 +3405,9 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3324,7 +3444,9 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3361,7 +3483,9 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3398,7 +3522,9 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3435,7 +3561,9 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3472,7 +3600,9 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3509,7 +3639,9 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3546,7 +3678,9 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3583,7 +3717,9 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3620,7 +3756,9 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3657,7 +3795,9 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3694,7 +3834,9 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3731,7 +3873,9 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3768,7 +3912,9 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3805,7 +3951,9 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3842,7 +3990,9 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3879,7 +4029,9 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3916,7 +4068,9 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3953,7 +4107,9 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t xml:space="preserve">
+Pfizer
+Mono</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">

--- a/VennOutput/Trimmed_PFIZER_Combined_Output_Mono-vs-Bivalent.xlsx
+++ b/VennOutput/Trimmed_PFIZER_Combined_Output_Mono-vs-Bivalent.xlsx
@@ -370,52 +370,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Case No.x</t>
+          <t>Case No</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRR.x</t>
+          <t>PRR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.x</t>
+          <t>Percentage of cases</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.x</t>
+          <t>Xsquared</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Significance.x</t>
+          <t>Significance</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Case No.y</t>
+          <t>Case No.PFIZER_BI</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PRR.y</t>
+          <t>PRR.PFIZER_BI</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.y</t>
+          <t>Percentage of cases.PFIZER_BI</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.y</t>
+          <t>Xsquared.PFIZER_BI</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Significance.y</t>
+          <t>Significance.PFIZER_BI</t>
         </is>
       </c>
     </row>
